--- a/Experiments/Measurements/Single Banner Vertical/V path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/V path/Antenna_2/Transformed_Coordinates.xlsx
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35.92490911139432</v>
+        <v>35.92490911139434</v>
       </c>
       <c r="H5" t="n">
-        <v>87.25234406351436</v>
+        <v>87.25234406351434</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +648,7 @@
         <v>53.22772242227274</v>
       </c>
       <c r="H7" t="n">
-        <v>73.50547682085951</v>
+        <v>73.50547682085953</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>101.744947978911</v>
       </c>
       <c r="H8" t="n">
-        <v>43.25916122541658</v>
+        <v>43.25916122541661</v>
       </c>
     </row>
     <row r="9">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>41.99849264404852</v>
+        <v>41.99849264404854</v>
       </c>
       <c r="H11" t="n">
-        <v>47.5449094537459</v>
+        <v>47.54490945374589</v>
       </c>
     </row>
     <row r="12">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>19.07433993649332</v>
+        <v>19.07433993649335</v>
       </c>
       <c r="H12" t="n">
-        <v>54.77866046121925</v>
+        <v>54.77866046121923</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
         <v>101.7509468666862</v>
       </c>
       <c r="H13" t="n">
-        <v>34.782222832256</v>
+        <v>34.78222283225602</v>
       </c>
     </row>
     <row r="14">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>94.25721574702909</v>
+        <v>94.25721574702908</v>
       </c>
       <c r="H14" t="n">
-        <v>43.79387452674057</v>
+        <v>43.79387452674059</v>
       </c>
     </row>
     <row r="15">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>42.04789802881254</v>
+        <v>42.04789802881255</v>
       </c>
       <c r="H17" t="n">
-        <v>46.64792682916843</v>
+        <v>46.64792682916841</v>
       </c>
     </row>
     <row r="18">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>37.55305700628963</v>
+        <v>37.55305700628965</v>
       </c>
       <c r="H18" t="n">
-        <v>66.09134692718732</v>
+        <v>66.0913469271873</v>
       </c>
     </row>
     <row r="19">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>98.7207121875125</v>
+        <v>98.72071218751249</v>
       </c>
       <c r="H19" t="n">
-        <v>60.65250026245238</v>
+        <v>60.65250026245239</v>
       </c>
     </row>
     <row r="20">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>41.11579465071858</v>
+        <v>41.1157946507186</v>
       </c>
       <c r="H23" t="n">
-        <v>84.66378801430615</v>
+        <v>84.66378801430614</v>
       </c>
     </row>
     <row r="24">
@@ -1155,10 +1155,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>71.8972633087278</v>
+        <v>71.89726330872777</v>
       </c>
       <c r="H24" t="n">
-        <v>40.02955061597213</v>
+        <v>40.02955061597219</v>
       </c>
     </row>
     <row r="25">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>78.478830973616</v>
+        <v>78.47883097361603</v>
       </c>
       <c r="H26" t="n">
-        <v>97.63789008142777</v>
+        <v>97.63789008142776</v>
       </c>
     </row>
     <row r="27">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>63.45786138128081</v>
+        <v>63.45786138128078</v>
       </c>
       <c r="H27" t="n">
-        <v>93.5512575434866</v>
+        <v>93.55125754348661</v>
       </c>
     </row>
     <row r="28">
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>71.92382102353265</v>
+        <v>71.92382102353262</v>
       </c>
       <c r="H30" t="n">
-        <v>59.10666117563645</v>
+        <v>59.10666117563648</v>
       </c>
     </row>
     <row r="31">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>67.0849489990524</v>
+        <v>67.08494899905241</v>
       </c>
       <c r="H31" t="n">
-        <v>51.97965102760435</v>
+        <v>51.97965102760433</v>
       </c>
     </row>
     <row r="32">
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50.96628018416769</v>
+        <v>50.96628018416768</v>
       </c>
       <c r="H32" t="n">
-        <v>41.01729558585011</v>
+        <v>41.01729558585014</v>
       </c>
     </row>
     <row r="33">
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>51.94685216511387</v>
+        <v>51.94685216511385</v>
       </c>
       <c r="H33" t="n">
-        <v>56.48928894978055</v>
+        <v>56.48928894978057</v>
       </c>
     </row>
     <row r="34">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>86.98395244596131</v>
+        <v>86.98395244596134</v>
       </c>
       <c r="H34" t="n">
-        <v>50.82398696311114</v>
+        <v>50.8239869631111</v>
       </c>
     </row>
     <row r="35">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>33.77746961796969</v>
+        <v>33.7774696179697</v>
       </c>
       <c r="H35" t="n">
-        <v>84.5306521349859</v>
+        <v>84.53065213498586</v>
       </c>
     </row>
     <row r="36">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>71.90824822646394</v>
+        <v>71.90824822646391</v>
       </c>
       <c r="H36" t="n">
-        <v>75.6451546598777</v>
+        <v>75.64515465987773</v>
       </c>
     </row>
     <row r="37">
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>76.98973733402829</v>
+        <v>76.98973733402828</v>
       </c>
       <c r="H37" t="n">
-        <v>40.08150043778566</v>
+        <v>40.08150043778569</v>
       </c>
     </row>
     <row r="38">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>86.92333663531969</v>
+        <v>86.92333663531971</v>
       </c>
       <c r="H39" t="n">
-        <v>37.23639593666832</v>
+        <v>37.23639593666827</v>
       </c>
     </row>
     <row r="40">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>51.12595152915306</v>
+        <v>51.12595152915304</v>
       </c>
       <c r="H40" t="n">
-        <v>41.64669911947365</v>
+        <v>41.64669911947367</v>
       </c>
     </row>
     <row r="41">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>91.77697024073856</v>
+        <v>91.77697024073859</v>
       </c>
       <c r="H41" t="n">
-        <v>38.93557181925155</v>
+        <v>38.93557181925151</v>
       </c>
     </row>
     <row r="42">
@@ -1698,7 +1698,7 @@
         <v>61.74438125824254</v>
       </c>
       <c r="H42" t="n">
-        <v>41.17660083760105</v>
+        <v>41.17660083760106</v>
       </c>
     </row>
     <row r="43">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>66.93159642287016</v>
+        <v>66.93159642287017</v>
       </c>
       <c r="H43" t="n">
-        <v>37.83499866205996</v>
+        <v>37.83499866205994</v>
       </c>
     </row>
     <row r="44">
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>58.31984535718947</v>
+        <v>58.31984535718952</v>
       </c>
       <c r="H45" t="n">
-        <v>98.10781062215638</v>
+        <v>98.10781062215635</v>
       </c>
     </row>
     <row r="46">
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>72.05690746008391</v>
+        <v>72.05690746008388</v>
       </c>
       <c r="H46" t="n">
-        <v>74.2439817609546</v>
+        <v>74.24398176095464</v>
       </c>
     </row>
     <row r="47">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>52.05878979121828</v>
+        <v>52.05878979121827</v>
       </c>
       <c r="H47" t="n">
-        <v>48.75013992991134</v>
+        <v>48.75013992991136</v>
       </c>
     </row>
     <row r="48">
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>76.7629850905868</v>
+        <v>76.76298509058678</v>
       </c>
       <c r="H48" t="n">
-        <v>50.38577189799767</v>
+        <v>50.38577189799769</v>
       </c>
     </row>
     <row r="49">
@@ -1908,7 +1908,7 @@
         <v>14.99177961134966</v>
       </c>
       <c r="H49" t="n">
-        <v>70.92656484206584</v>
+        <v>70.92656484206579</v>
       </c>
     </row>
     <row r="50">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>71.83873444221889</v>
+        <v>71.83873444221886</v>
       </c>
       <c r="H50" t="n">
-        <v>61.78901130392226</v>
+        <v>61.78901130392229</v>
       </c>
     </row>
     <row r="51">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>86.72651945695372</v>
+        <v>86.72651945695375</v>
       </c>
       <c r="H51" t="n">
-        <v>61.03572260566703</v>
+        <v>61.035722605667</v>
       </c>
     </row>
   </sheetData>
